--- a/docs/templates/graph_method.xlsx
+++ b/docs/templates/graph_method.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\github\part-of-speech-tagging\docs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256BB2AE-49C2-4F38-964F-ABD9CA06109B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF4CA79-7D9F-46E1-A315-9EC0C3081C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{EBBA62F3-1349-4B07-A5A9-FC5A538080A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EBBA62F3-1349-4B07-A5A9-FC5A538080A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Method probability for each node</a:t>
+              <a:t>Method procent for each node</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -455,7 +455,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>pROBABILITY</a:t>
+                  <a:t>procent</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
